--- a/CorePython/FrameworkDesign/TestData/InputData.xlsx
+++ b/CorePython/FrameworkDesign/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdahal/GitRepos/PythonProgrammingBatch2024/CorePython/FrameworkDesign/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9451C7BB-802D-3C42-8F13-8C21972B5CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF707D3-184B-2D4A-BB8C-DE4B08E3E810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="27580" windowHeight="17440" xr2:uid="{5423560E-8F12-2443-B1D7-4B68368EB638}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -597,5 +597,6 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{FF1F8280-72F4-E744-9004-B9FE09A491BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>